--- a/打包/execution_times_2025-02-05.xlsx
+++ b/打包/execution_times_2025-02-05.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0D97BF5-57D4-4792-8841-38698AB12562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2AD46-0897-4E32-8481-1FFE3D680077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{80B6D3C0-EB83-42E9-81D3-68FFDA12CE23}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15634" xr2:uid="{80B6D3C0-EB83-42E9-81D3-68FFDA12CE23}"/>
   </bookViews>
   <sheets>
     <sheet name="execution_times" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1205,9 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254EB6A-F127-4A7B-84F3-E367D16890DE}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1256,27 +1267,27 @@
       <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>346.49413728713898</v>
+        <v>297.58333659172001</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="6">
-        <v>297.58333659172001</v>
+        <v>346.49413728713898</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1284,13 +1295,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>346.95266199111899</v>
+        <v>300.229535579681</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6">
-        <v>300.229535579681</v>
+        <v>346.95266199111899</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1298,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="6">
-        <v>347.778249025344</v>
+        <v>313.517914533615</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6">
-        <v>313.517914533615</v>
+        <v>347.778249025344</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1312,13 +1323,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>347.68050265312098</v>
+        <v>313.514098882675</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6">
-        <v>313.514098882675</v>
+        <v>347.68050265312098</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1326,13 +1337,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>347.812489986419</v>
+        <v>312.25242114066998</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6">
-        <v>312.25242114066998</v>
+        <v>347.812489986419</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1340,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>347.936363697052</v>
+        <v>311.37175893783501</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>311.37175893783501</v>
+        <v>347.936363697052</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1354,13 +1365,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>348.390863656997</v>
+        <v>313.52391386032099</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="6">
-        <v>313.52391386032099</v>
+        <v>348.390863656997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1368,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6">
-        <v>349.10357022285399</v>
+        <v>311.86459183692898</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="6">
-        <v>311.86459183692898</v>
+        <v>349.10357022285399</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1382,13 +1393,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>348.586407899856</v>
+        <v>312.35653114318802</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="6">
-        <v>312.35653114318802</v>
+        <v>348.586407899856</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1396,13 +1407,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <v>348.79684710502602</v>
+        <v>312.42045903205798</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6">
-        <v>312.42045903205798</v>
+        <v>348.79684710502602</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1410,13 +1421,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="6">
-        <v>346.49413728713898</v>
+        <v>297.58333659172001</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="6">
-        <v>297.58333659172001</v>
+        <v>346.49413728713898</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1424,30 +1435,30 @@
         <v>2</v>
       </c>
       <c r="B18" s="6">
-        <v>349.10357022285399</v>
+        <v>313.52391386032099</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="6">
-        <v>313.52391386032099</v>
+        <v>349.10357022285399</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="12">
+        <v>309.86345615386898</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
         <v>347.95320935249299</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>309.86345615386898</v>
-      </c>
       <c r="E19" s="13">
-        <f>(D19 - B19) / B19</f>
+        <f>(B19 - D19) / D19</f>
         <v>-0.10946803241017759</v>
       </c>
     </row>

--- a/打包/execution_times_2025-02-05.xlsx
+++ b/打包/execution_times_2025-02-05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2AD46-0897-4E32-8481-1FFE3D680077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1185619C-0817-4456-BFDA-B2DBB1632C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15634" xr2:uid="{80B6D3C0-EB83-42E9-81D3-68FFDA12CE23}"/>
   </bookViews>
@@ -1218,7 +1218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254EB6A-F127-4A7B-84F3-E367D16890DE}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.45"/>
   <cols>
